--- a/data_year/zb/国民经济核算/分行业增加值指数/分行业增加值指数(上年=100).xlsx
+++ b/data_year/zb/国民经济核算/分行业增加值指数/分行业增加值指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,778 +488,482 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.5818843037</v>
+        <v>109.4666421932</v>
       </c>
       <c r="C2" t="n">
-        <v>109.3369771241</v>
+        <v>108.2211767519</v>
       </c>
       <c r="D2" t="n">
-        <v>113.0932405778</v>
+        <v>108.0425599976</v>
       </c>
       <c r="E2" t="n">
-        <v>102.4005144037</v>
+        <v>104.2681937216</v>
       </c>
       <c r="F2" t="n">
-        <v>108.4900934073</v>
+        <v>110.6358710642</v>
       </c>
       <c r="G2" t="n">
-        <v>109.8576645802</v>
+        <v>112.5782784463</v>
       </c>
       <c r="H2" t="n">
-        <v>105.7041588111</v>
+        <v>113.8253501946</v>
       </c>
       <c r="I2" t="n">
-        <v>107.1052600452</v>
+        <v>107.1664502001</v>
       </c>
       <c r="J2" t="n">
-        <v>109.4179076714</v>
+        <v>114.5973999162</v>
       </c>
       <c r="K2" t="n">
-        <v>106.9722707687</v>
+        <v>108.9534039292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.8082474638</v>
+        <v>109.6611973546</v>
       </c>
       <c r="C3" t="n">
-        <v>107.6455674228</v>
+        <v>105.1115012837</v>
       </c>
       <c r="D3" t="n">
-        <v>112.8511757862</v>
+        <v>109.6784479875</v>
       </c>
       <c r="E3" t="n">
-        <v>102.7995791071</v>
+        <v>104.251352153</v>
       </c>
       <c r="F3" t="n">
-        <v>108.3357334774</v>
+        <v>109.550832179</v>
       </c>
       <c r="G3" t="n">
-        <v>108.7173633268</v>
+        <v>110.9437639599</v>
       </c>
       <c r="H3" t="n">
-        <v>106.7995668204</v>
+        <v>109.7253572241</v>
       </c>
       <c r="I3" t="n">
-        <v>110.9908897302</v>
+        <v>107.0666966984</v>
       </c>
       <c r="J3" t="n">
-        <v>109.0944767155</v>
+        <v>112.4641508133</v>
       </c>
       <c r="K3" t="n">
-        <v>107.0172216734</v>
+        <v>107.6829721964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1276478019</v>
+        <v>106.0881029928</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1415689762</v>
+        <v>106.4527590819</v>
       </c>
       <c r="D4" t="n">
-        <v>113.6732805427</v>
+        <v>108.2110535372</v>
       </c>
       <c r="E4" t="n">
-        <v>102.8998337042</v>
+        <v>104.5461284889</v>
       </c>
       <c r="F4" t="n">
-        <v>109.1336307905</v>
+        <v>107.8637364488</v>
       </c>
       <c r="G4" t="n">
-        <v>110.0417281366</v>
+        <v>108.1249056195</v>
       </c>
       <c r="H4" t="n">
-        <v>108.8093073141</v>
+        <v>109.7536646176</v>
       </c>
       <c r="I4" t="n">
-        <v>109.8831041599</v>
+        <v>104.346800572</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8108474854</v>
+        <v>110.2982588662</v>
       </c>
       <c r="K4" t="n">
-        <v>107.5251199028</v>
+        <v>109.4529105046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.127487117</v>
+        <v>106.5981614673</v>
       </c>
       <c r="C5" t="n">
-        <v>112.3576711273</v>
+        <v>103.903938691</v>
       </c>
       <c r="D5" t="n">
-        <v>110.8243467765</v>
+        <v>107.5617889822</v>
       </c>
       <c r="E5" t="n">
-        <v>102.4993217145</v>
+        <v>103.9604589135</v>
       </c>
       <c r="F5" t="n">
-        <v>110.0380304802</v>
+        <v>107.7661500977</v>
       </c>
       <c r="G5" t="n">
-        <v>112.7512743114</v>
+        <v>107.7341205946</v>
       </c>
       <c r="H5" t="n">
-        <v>112.0852480041</v>
+        <v>109.6778804131</v>
       </c>
       <c r="I5" t="n">
-        <v>109.7667762688</v>
+        <v>106.8461638196</v>
       </c>
       <c r="J5" t="n">
-        <v>109.9379600585</v>
+        <v>110.5148749939</v>
       </c>
       <c r="K5" t="n">
-        <v>107.4402314409</v>
+        <v>110.5675184483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.4768818267</v>
+        <v>106.923966815</v>
       </c>
       <c r="C6" t="n">
-        <v>112.3390486973</v>
+        <v>106.1945539253</v>
       </c>
       <c r="D6" t="n">
-        <v>112.7051493638</v>
+        <v>109.0195019344</v>
       </c>
       <c r="E6" t="n">
-        <v>106.299246841</v>
+        <v>104.1934334576</v>
       </c>
       <c r="F6" t="n">
-        <v>110.113621378</v>
+        <v>107.4257636562</v>
       </c>
       <c r="G6" t="n">
-        <v>111.5537320346</v>
+        <v>106.7381309375</v>
       </c>
       <c r="H6" t="n">
-        <v>108.1501944877</v>
+        <v>109.6426411501</v>
       </c>
       <c r="I6" t="n">
-        <v>105.8439802908</v>
+        <v>102.1159506405</v>
       </c>
       <c r="J6" t="n">
-        <v>106.5677423354</v>
+        <v>110.2582532238</v>
       </c>
       <c r="K6" t="n">
-        <v>104.6878598169</v>
+        <v>110.5118323733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.2050631046</v>
+        <v>104.4445717939</v>
       </c>
       <c r="C7" t="n">
-        <v>112.260496007</v>
+        <v>106.5669493117</v>
       </c>
       <c r="D7" t="n">
-        <v>112.006286194</v>
+        <v>109.7002097362</v>
       </c>
       <c r="E7" t="n">
-        <v>105.2334068001</v>
+        <v>104.0490122072</v>
       </c>
       <c r="F7" t="n">
-        <v>111.3945918098</v>
+        <v>107.0413288787</v>
       </c>
       <c r="G7" t="n">
-        <v>111.6463711416</v>
+        <v>105.6895028818</v>
       </c>
       <c r="H7" t="n">
-        <v>116.0026367403</v>
+        <v>107.3354621112</v>
       </c>
       <c r="I7" t="n">
-        <v>112.1252832877</v>
+        <v>103.8476021778</v>
       </c>
       <c r="J7" t="n">
-        <v>113.0265987851</v>
+        <v>106.7250971249</v>
       </c>
       <c r="K7" t="n">
-        <v>114.1297365702</v>
+        <v>116.7386597828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.9698584426</v>
+        <v>106.8834109772</v>
       </c>
       <c r="C8" t="n">
-        <v>112.568107224</v>
+        <v>107.7198465179</v>
       </c>
       <c r="D8" t="n">
-        <v>110.8607962558</v>
+        <v>109.7823231876</v>
       </c>
       <c r="E8" t="n">
-        <v>105.0005486256</v>
+        <v>103.4522395589</v>
       </c>
       <c r="F8" t="n">
-        <v>112.7209556654</v>
+        <v>106.848762205</v>
       </c>
       <c r="G8" t="n">
-        <v>112.9285869655</v>
+        <v>105.6809467562</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2280929025</v>
+        <v>107.7072058619</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3654912655</v>
+        <v>108.7848915708</v>
       </c>
       <c r="J8" t="n">
-        <v>119.4630685394</v>
+        <v>107.6737761136</v>
       </c>
       <c r="K8" t="n">
-        <v>123.7317210428</v>
+        <v>104.8085926518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111.8029943034</v>
+        <v>109.5559349483</v>
       </c>
       <c r="C9" t="n">
-        <v>109.6173720521</v>
+        <v>108.1620841733</v>
       </c>
       <c r="D9" t="n">
-        <v>111.5942217636</v>
+        <v>110.1108806812</v>
       </c>
       <c r="E9" t="n">
-        <v>103.7451876648</v>
+        <v>104.1028926978</v>
       </c>
       <c r="F9" t="n">
-        <v>114.2308609334</v>
+        <v>106.9472007933</v>
       </c>
       <c r="G9" t="n">
-        <v>114.9471641046</v>
+        <v>106.2231065408</v>
       </c>
       <c r="H9" t="n">
-        <v>116.1921823162</v>
+        <v>103.9292242147</v>
       </c>
       <c r="I9" t="n">
-        <v>124.0304890977</v>
+        <v>106.9546087587</v>
       </c>
       <c r="J9" t="n">
-        <v>120.2145325222</v>
+        <v>107.8165491318</v>
       </c>
       <c r="K9" t="n">
-        <v>125.7971921405</v>
+        <v>104.7595635042</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.3261954363</v>
+        <v>108.2668144323</v>
       </c>
       <c r="C10" t="n">
-        <v>109.5999766304</v>
+        <v>106.684412724</v>
       </c>
       <c r="D10" t="n">
-        <v>111.2135848809</v>
+        <v>111.0509912536</v>
       </c>
       <c r="E10" t="n">
-        <v>105.3793105359</v>
+        <v>103.6492504945</v>
       </c>
       <c r="F10" t="n">
-        <v>109.6506789191</v>
+        <v>106.7497738325</v>
       </c>
       <c r="G10" t="n">
-        <v>109.9724214084</v>
+        <v>106.0953506665</v>
       </c>
       <c r="H10" t="n">
-        <v>109.5141757787</v>
+        <v>104.8222405263</v>
       </c>
       <c r="I10" t="n">
-        <v>100.6120548072</v>
+        <v>103.4713395251</v>
       </c>
       <c r="J10" t="n">
-        <v>115.8500057907</v>
+        <v>106.6822806833</v>
       </c>
       <c r="K10" t="n">
-        <v>112.0881604658</v>
+        <v>104.7823078757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.3718464908</v>
+        <v>106.495340386926</v>
       </c>
       <c r="C11" t="n">
-        <v>103.7558826358</v>
+        <v>105.489777125506</v>
       </c>
       <c r="D11" t="n">
-        <v>108.5638858216</v>
+        <v>109.691805857139</v>
       </c>
       <c r="E11" t="n">
-        <v>104.1879878107</v>
+        <v>103.249856504947</v>
       </c>
       <c r="F11" t="n">
-        <v>109.3987256328</v>
+        <v>105.950500753775</v>
       </c>
       <c r="G11" t="n">
-        <v>109.0876720457</v>
+        <v>104.789791756404</v>
       </c>
       <c r="H11" t="n">
-        <v>118.9474362346</v>
+        <v>105.242518609085</v>
       </c>
       <c r="I11" t="n">
-        <v>111.450475963</v>
+        <v>102.579304150305</v>
       </c>
       <c r="J11" t="n">
-        <v>111.9000608405</v>
+        <v>105.607441604616</v>
       </c>
       <c r="K11" t="n">
-        <v>116.3431694146</v>
+        <v>106.647060679728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109.4666421932</v>
+        <v>100.825566542774</v>
       </c>
       <c r="C12" t="n">
-        <v>108.2211767519</v>
+        <v>83.18511672808179</v>
       </c>
       <c r="D12" t="n">
-        <v>108.0425599976</v>
+        <v>103.720082378197</v>
       </c>
       <c r="E12" t="n">
-        <v>104.2681937216</v>
+        <v>103.309048821249</v>
       </c>
       <c r="F12" t="n">
-        <v>110.6358710642</v>
+        <v>102.238638356268</v>
       </c>
       <c r="G12" t="n">
-        <v>112.5782784463</v>
+        <v>102.374469380735</v>
       </c>
       <c r="H12" t="n">
-        <v>113.8253501946</v>
+        <v>102.724197840531</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1664502001</v>
+        <v>101.273718230176</v>
       </c>
       <c r="J12" t="n">
-        <v>114.5973999162</v>
+        <v>99.11025613231379</v>
       </c>
       <c r="K12" t="n">
-        <v>108.9534039292</v>
+        <v>105.896013124636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.6611973546</v>
+        <v>115.1</v>
       </c>
       <c r="C13" t="n">
-        <v>105.1115012837</v>
+        <v>115.6</v>
       </c>
       <c r="D13" t="n">
-        <v>109.6784479875</v>
+        <v>109.1</v>
       </c>
       <c r="E13" t="n">
-        <v>104.251352153</v>
+        <v>107.1</v>
       </c>
       <c r="F13" t="n">
-        <v>109.550832179</v>
+        <v>108.4</v>
       </c>
       <c r="G13" t="n">
-        <v>110.9437639599</v>
+        <v>110.4</v>
       </c>
       <c r="H13" t="n">
-        <v>109.7253572241</v>
+        <v>101.1</v>
       </c>
       <c r="I13" t="n">
-        <v>107.0666966984</v>
+        <v>103.5</v>
       </c>
       <c r="J13" t="n">
-        <v>112.4641508133</v>
+        <v>111</v>
       </c>
       <c r="K13" t="n">
-        <v>107.6829721964</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.0881029928</v>
+        <v>99.2</v>
       </c>
       <c r="C14" t="n">
-        <v>106.4527590819</v>
+        <v>97.7</v>
       </c>
       <c r="D14" t="n">
-        <v>108.2110535372</v>
+        <v>104.6</v>
       </c>
       <c r="E14" t="n">
-        <v>104.5461284889</v>
+        <v>104.3</v>
       </c>
       <c r="F14" t="n">
-        <v>107.8637364488</v>
+        <v>103</v>
       </c>
       <c r="G14" t="n">
-        <v>108.1249056195</v>
+        <v>103.4</v>
       </c>
       <c r="H14" t="n">
-        <v>109.7536646176</v>
+        <v>105.5</v>
       </c>
       <c r="I14" t="n">
-        <v>104.346800572</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>110.2982588662</v>
+        <v>100.9</v>
       </c>
       <c r="K14" t="n">
-        <v>109.4529105046</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>106.5981614673</v>
-      </c>
-      <c r="C15" t="n">
-        <v>103.903938691</v>
-      </c>
-      <c r="D15" t="n">
-        <v>107.5617889822</v>
-      </c>
-      <c r="E15" t="n">
-        <v>103.9604589135</v>
-      </c>
-      <c r="F15" t="n">
-        <v>107.7661500977</v>
-      </c>
-      <c r="G15" t="n">
-        <v>107.7341205946</v>
-      </c>
-      <c r="H15" t="n">
-        <v>109.6778804131</v>
-      </c>
-      <c r="I15" t="n">
-        <v>106.8461638196</v>
-      </c>
-      <c r="J15" t="n">
-        <v>110.5148749939</v>
-      </c>
-      <c r="K15" t="n">
-        <v>110.5675184483</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>106.923966815</v>
-      </c>
-      <c r="C16" t="n">
-        <v>106.1945539253</v>
-      </c>
-      <c r="D16" t="n">
-        <v>109.0195019344</v>
-      </c>
-      <c r="E16" t="n">
-        <v>104.1934334576</v>
-      </c>
-      <c r="F16" t="n">
-        <v>107.4257636562</v>
-      </c>
-      <c r="G16" t="n">
-        <v>106.7381309375</v>
-      </c>
-      <c r="H16" t="n">
-        <v>109.6426411501</v>
-      </c>
-      <c r="I16" t="n">
-        <v>102.1159506405</v>
-      </c>
-      <c r="J16" t="n">
-        <v>110.2582532238</v>
-      </c>
-      <c r="K16" t="n">
-        <v>110.5118323733</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>104.4445717939</v>
-      </c>
-      <c r="C17" t="n">
-        <v>106.5669493117</v>
-      </c>
-      <c r="D17" t="n">
-        <v>109.7002097362</v>
-      </c>
-      <c r="E17" t="n">
-        <v>104.0490122072</v>
-      </c>
-      <c r="F17" t="n">
-        <v>107.0413288787</v>
-      </c>
-      <c r="G17" t="n">
-        <v>105.6895028818</v>
-      </c>
-      <c r="H17" t="n">
-        <v>107.3354621112</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103.8476021778</v>
-      </c>
-      <c r="J17" t="n">
-        <v>106.7250971249</v>
-      </c>
-      <c r="K17" t="n">
-        <v>116.7386597828</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>106.8834109772</v>
-      </c>
-      <c r="C18" t="n">
-        <v>107.7198465179</v>
-      </c>
-      <c r="D18" t="n">
-        <v>109.7823231876</v>
-      </c>
-      <c r="E18" t="n">
-        <v>103.4522395589</v>
-      </c>
-      <c r="F18" t="n">
-        <v>106.848762205</v>
-      </c>
-      <c r="G18" t="n">
-        <v>105.6809467562</v>
-      </c>
-      <c r="H18" t="n">
-        <v>107.7072058619</v>
-      </c>
-      <c r="I18" t="n">
-        <v>108.7848915708</v>
-      </c>
-      <c r="J18" t="n">
-        <v>107.6737761136</v>
-      </c>
-      <c r="K18" t="n">
-        <v>104.8085926518</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>109.5559349483</v>
-      </c>
-      <c r="C19" t="n">
-        <v>108.1620841733</v>
-      </c>
-      <c r="D19" t="n">
-        <v>110.1108806812</v>
-      </c>
-      <c r="E19" t="n">
-        <v>104.1028926978</v>
-      </c>
-      <c r="F19" t="n">
-        <v>106.9472007933</v>
-      </c>
-      <c r="G19" t="n">
-        <v>106.2231065408</v>
-      </c>
-      <c r="H19" t="n">
-        <v>103.9292242147</v>
-      </c>
-      <c r="I19" t="n">
-        <v>106.9546087587</v>
-      </c>
-      <c r="J19" t="n">
-        <v>107.8165491318</v>
-      </c>
-      <c r="K19" t="n">
-        <v>104.7595635042</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>108.2668144323</v>
-      </c>
-      <c r="C20" t="n">
-        <v>106.684412724</v>
-      </c>
-      <c r="D20" t="n">
-        <v>111.0509912536</v>
-      </c>
-      <c r="E20" t="n">
-        <v>103.6492504945</v>
-      </c>
-      <c r="F20" t="n">
-        <v>106.7497738325</v>
-      </c>
-      <c r="G20" t="n">
-        <v>106.0953506665</v>
-      </c>
-      <c r="H20" t="n">
-        <v>104.8222405263</v>
-      </c>
-      <c r="I20" t="n">
-        <v>103.4713395251</v>
-      </c>
-      <c r="J20" t="n">
-        <v>106.6822806833</v>
-      </c>
-      <c r="K20" t="n">
-        <v>104.7823078757</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>106.495340386926</v>
-      </c>
-      <c r="C21" t="n">
-        <v>105.489777125506</v>
-      </c>
-      <c r="D21" t="n">
-        <v>109.691805857139</v>
-      </c>
-      <c r="E21" t="n">
-        <v>103.249856504947</v>
-      </c>
-      <c r="F21" t="n">
-        <v>105.950500753775</v>
-      </c>
-      <c r="G21" t="n">
-        <v>104.789791756404</v>
-      </c>
-      <c r="H21" t="n">
-        <v>105.242518609085</v>
-      </c>
-      <c r="I21" t="n">
-        <v>102.579304150305</v>
-      </c>
-      <c r="J21" t="n">
-        <v>105.607441604616</v>
-      </c>
-      <c r="K21" t="n">
-        <v>106.647060679728</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>105.9</v>
+        <v>105.6</v>
       </c>
     </row>
   </sheetData>
